--- a/prevention/ValueSet-KLInterventionCodes119.xlsx
+++ b/prevention/ValueSet-KLInterventionCodes119.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from FSIII" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-28T10:27:14+02:00</t>
+    <t>2024-06-14T10:04:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,13 +69,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Intervention codes allowed in this implementation guide. Notice that codes are excluded to pinpoint that information about group/individual treatment must be included for some interventions</t>
+    <t>Intervention codes allowed in this implementation guide.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -90,10 +90,58 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>http://fhir.kl.dk/term/ValueSet/KLPreventionInterventionsFSIII</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01a500f6-c221-4fd0-b518-cd361218b60d</t>
+  </si>
+  <si>
+    <t>03a3ebdb-9e2d-4be1-b32b-42f0bd2a3362</t>
+  </si>
+  <si>
+    <t>61692d91-69b8-4830-9453-3d58454e49d3</t>
+  </si>
+  <si>
+    <t>6d24992e-e0a2-43e7-bc27-0234622a8655</t>
+  </si>
+  <si>
+    <t>6eddbaf7-2a73-49d4-91e7-6138d419f58c</t>
+  </si>
+  <si>
+    <t>924e9828-84cf-4689-9551-0ebb6dc71b98</t>
+  </si>
+  <si>
+    <t>ab87c0b5-40be-4e0a-b749-d9f833bfed2d</t>
+  </si>
+  <si>
+    <t>abe847e0-1ce0-44dc-a675-ce05b66f47e6</t>
+  </si>
+  <si>
+    <t>c9a99304-1788-43b7-b7be-e187b092ae9c</t>
+  </si>
+  <si>
+    <t>cf7a55c2-7061-47ed-b7c5-e29620fe93bf</t>
+  </si>
+  <si>
+    <t>d1e016b5-150a-4ac4-97ba-d3e19e28471e</t>
+  </si>
+  <si>
+    <t>e71b7d85-5c78-49c2-8624-8499d162317b</t>
+  </si>
+  <si>
+    <t>ee5606ac-1bed-487e-aa3c-72dcc30ec037</t>
+  </si>
+  <si>
+    <t>f30cab6d-2a42-4358-99d7-811127fb6e05</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.208.176.2.21</t>
   </si>
 </sst>
 </file>
@@ -352,7 +400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +414,108 @@
       <c r="A1" t="s" s="1">
         <v>25</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/prevention/ValueSet-KLInterventionCodes119.xlsx
+++ b/prevention/ValueSet-KLInterventionCodes119.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T10:04:53+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-KLInterventionCodes119.xlsx
+++ b/prevention/ValueSet-KLInterventionCodes119.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-21T13:40:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-KLInterventionCodes119.xlsx
+++ b/prevention/ValueSet-KLInterventionCodes119.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:40:09+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-KLInterventionCodes119.xlsx
+++ b/prevention/ValueSet-KLInterventionCodes119.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-24T12:38:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
